--- a/DataFiles/Textile_Exports.xlsx
+++ b/DataFiles/Textile_Exports.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachindak\Desktop\RSU50\RSU50\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94004877-2A2B-4525-A495-B890AB772CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF69996B-AB7C-4C27-87E0-57E3D8228041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="3" r:id="rId1"/>
-    <sheet name="Product-TimeSeries-Partner" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Table1!$A$1:$C$581</definedName>
@@ -46,13 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="53">
-  <si>
-    <t>Partner Name</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="52">
   <si>
     <t>1990</t>
   </si>
@@ -204,7 +196,10 @@
     <t>Textiles and Clothing Export (US$ Thousand)</t>
   </si>
   <si>
-    <t>Attribute</t>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -286,51 +281,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AFF71AE-B462-4E93-8F59-9A19696E4C04}" name="Table1_1" displayName="Table1_1" ref="A1:C581" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C581" xr:uid="{1AFF71AE-B462-4E93-8F59-9A19696E4C04}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{24E96A1E-A8EA-4A7F-B7B2-54A372F016F2}" uniqueName="1" name="Partner Name" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B02B7FD7-AEFB-4E24-94C1-F0C12587585D}" uniqueName="3" name="Attribute" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{24E96A1E-A8EA-4A7F-B7B2-54A372F016F2}" uniqueName="1" name="Country" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B02B7FD7-AEFB-4E24-94C1-F0C12587585D}" uniqueName="3" name="Year" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{64813BA0-C212-44DB-B29B-A7FA01476AE9}" uniqueName="4" name="Textiles and Clothing Export (US$ Thousand)" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BFB2AE8-D7FF-4082-B437-4F06183AB8B9}" name="Table1" displayName="Table1" ref="A1:AE21" totalsRowShown="0">
-  <autoFilter ref="A1:AE21" xr:uid="{1BFB2AE8-D7FF-4082-B437-4F06183AB8B9}"/>
-  <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{C3DD8D4B-E022-44F1-8066-9E599FE2B26B}" name="Partner Name"/>
-    <tableColumn id="2" xr3:uid="{2700D454-CE24-4AB4-995F-AF19992779A2}" name="Indicator"/>
-    <tableColumn id="3" xr3:uid="{927F1D24-ED19-455A-8A5B-8E240F7D31C0}" name="1990"/>
-    <tableColumn id="4" xr3:uid="{A3303ED1-0212-4C67-9BE8-0483441D453C}" name="1991"/>
-    <tableColumn id="5" xr3:uid="{19D3B907-6CDE-4234-8964-75105330FFA6}" name="1992"/>
-    <tableColumn id="6" xr3:uid="{516358FD-0413-47E7-BD1D-EEEE6CCD0C2C}" name="1993"/>
-    <tableColumn id="7" xr3:uid="{EB29991C-285B-4290-916D-9F23D1ADFF1F}" name="1994"/>
-    <tableColumn id="8" xr3:uid="{FC7AA043-83EF-4424-9E1F-B3DF7AAAF23C}" name="1995"/>
-    <tableColumn id="9" xr3:uid="{F1597782-C2D2-4008-BF65-ADA8D2669BE9}" name="1996"/>
-    <tableColumn id="10" xr3:uid="{178F1D4A-EC35-4919-914B-E733C7195AEE}" name="1997"/>
-    <tableColumn id="11" xr3:uid="{DC737CBB-83D6-4590-AAD9-EBC6A1992E80}" name="1998"/>
-    <tableColumn id="12" xr3:uid="{E0A6D586-2BD2-4C3E-9D9A-55F3D196A311}" name="1999"/>
-    <tableColumn id="13" xr3:uid="{CED854A7-014A-4795-859C-66D6105F1564}" name="2000"/>
-    <tableColumn id="14" xr3:uid="{6FF99A2C-A355-46B4-B74D-7CD93F5CD79D}" name="2001"/>
-    <tableColumn id="15" xr3:uid="{62B65DBA-3983-43D8-825F-73616D953840}" name="2002"/>
-    <tableColumn id="16" xr3:uid="{E89CBA02-20C5-4864-A630-EF2F1BB2CDFE}" name="2003"/>
-    <tableColumn id="17" xr3:uid="{65E6E05F-C981-47E5-AAE9-EEC2F4571103}" name="2004"/>
-    <tableColumn id="18" xr3:uid="{72FA6D53-222F-4BC8-BF32-9979DA66F375}" name="2005"/>
-    <tableColumn id="19" xr3:uid="{92984B0F-DBA6-4CFF-9A10-42599114AC18}" name="2006"/>
-    <tableColumn id="20" xr3:uid="{4CC9C200-683A-496A-8433-8E217A420D18}" name="2007"/>
-    <tableColumn id="21" xr3:uid="{93A79BFB-2C17-4272-B015-0C303E24F106}" name="2008"/>
-    <tableColumn id="22" xr3:uid="{3D4BFCB4-CA58-4C76-A32F-06141FD5461B}" name="2009"/>
-    <tableColumn id="23" xr3:uid="{4B94C3BB-CE1C-432F-86A3-8B26822D46EB}" name="2010"/>
-    <tableColumn id="24" xr3:uid="{2D6C9977-CE88-4AEE-AB9D-FA394A76C413}" name="2011"/>
-    <tableColumn id="25" xr3:uid="{EAF7DC69-66C3-47D7-92A3-8ED107A0FA91}" name="2012"/>
-    <tableColumn id="26" xr3:uid="{22E1E14B-8FCB-4122-AB88-75F9A0170CD2}" name="2013"/>
-    <tableColumn id="27" xr3:uid="{DFF1776A-B2C2-4ECE-AB03-A4A8EB11B7B0}" name="2014"/>
-    <tableColumn id="28" xr3:uid="{D1901A79-5912-4C25-915D-D0BA0EDF4E73}" name="2015"/>
-    <tableColumn id="29" xr3:uid="{FA303456-3A82-4B56-AA1D-A43F62A8E3F3}" name="2016"/>
-    <tableColumn id="30" xr3:uid="{F09E3F9F-F497-4175-BA65-C903A39CE5EE}" name="2017"/>
-    <tableColumn id="31" xr3:uid="{36FC23A2-E127-4CEF-AA3A-F3FBB97BB1D4}" name="2018"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -621,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41B45A7-9214-4E86-BAD5-A7F40BF69884}">
   <dimension ref="A1:C581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="A586" sqref="A586"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,21 +589,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>115639.64100000002</v>
@@ -656,10 +611,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>124630.89899999998</v>
@@ -667,10 +622,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>75533.520999999993</v>
@@ -678,10 +633,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>77294.528000000006</v>
@@ -689,10 +644,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>50351.557000000001</v>
@@ -700,10 +655,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>40460.340000000011</v>
@@ -711,10 +666,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>59165.234000000011</v>
@@ -722,10 +677,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>84434.880000000005</v>
@@ -733,10 +688,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>63956.30599999999</v>
@@ -744,10 +699,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>57881.150999999998</v>
@@ -755,10 +710,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>132872.13672637093</v>
@@ -766,10 +721,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>114379.26383351594</v>
@@ -777,10 +732,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>179896.76224464699</v>
@@ -788,10 +743,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>233637.15095127118</v>
@@ -799,10 +754,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>271619.30356929265</v>
@@ -810,10 +765,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>279186.74865874974</v>
@@ -821,10 +776,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>243210.61581092296</v>
@@ -832,10 +787,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>169090.82631918817</v>
@@ -843,10 +798,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>297439.14075321943</v>
@@ -854,10 +809,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>369954.79224907467</v>
@@ -865,10 +820,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>607921.09426861384</v>
@@ -876,10 +831,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>664178.40122579352</v>
@@ -887,10 +842,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>397977.04813985154</v>
@@ -898,10 +853,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>665814.69627735054</v>
@@ -909,10 +864,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>643076.70640116453</v>
@@ -920,10 +875,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>668617.43841293245</v>
@@ -931,10 +886,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>587450.91459142871</v>
@@ -942,10 +897,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>722834.20321440266</v>
@@ -953,10 +908,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>701352.84022401506</v>
@@ -964,10 +919,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>368246.75199999998</v>
@@ -975,10 +930,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>426682.2319999999</v>
@@ -986,10 +941,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>550824.74799999991</v>
@@ -997,10 +952,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>854144.74799999991</v>
@@ -1008,10 +963,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>1190447.3640000001</v>
@@ -1019,10 +974,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1427170.6620000002</v>
@@ -1030,10 +985,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>1428198.9680000008</v>
@@ -1041,10 +996,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>1950448.4070000004</v>
@@ -1052,10 +1007,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>1681162.7689999992</v>
@@ -1063,10 +1018,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>1690169.9909999988</v>
@@ -1074,10 +1029,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>2087777.7757935026</v>
@@ -1085,10 +1040,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>1886882.6053647553</v>
@@ -1096,10 +1051,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>1863754.4690015228</v>
@@ -1107,10 +1062,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>2312347.4518104382</v>
@@ -1118,10 +1073,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>2770768.0518439999</v>
@@ -1129,10 +1084,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>2971784.360728492</v>
@@ -1140,10 +1095,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>3295483.3752417075</v>
@@ -1151,10 +1106,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>3293140.4691367345</v>
@@ -1162,10 +1117,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>4440540.5782330586</v>
@@ -1173,10 +1128,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>3834290.2011882365</v>
@@ -1184,10 +1139,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51">
         <v>5962241.3943840908</v>
@@ -1195,10 +1150,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>7496842.7193038315</v>
@@ -1206,10 +1161,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>7945871.5335587896</v>
@@ -1217,10 +1172,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C54">
         <v>9271966.2003003974</v>
@@ -1228,10 +1183,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>9829170.1525827944</v>
@@ -1239,10 +1194,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>10319109.678033626</v>
@@ -1250,10 +1205,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>10519917.991777629</v>
@@ -1261,10 +1216,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>11834335.598604666</v>
@@ -1272,10 +1227,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>13881891.524164686</v>
@@ -1283,10 +1238,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>161.76300000000003</v>
@@ -1294,10 +1249,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>335.13200000000001</v>
@@ -1305,10 +1260,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>33.1</v>
@@ -1316,10 +1271,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>533.86200000000008</v>
@@ -1327,10 +1282,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>287.988</v>
@@ -1338,10 +1293,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>384.32699999999994</v>
@@ -1349,10 +1304,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>211.39900000000003</v>
@@ -1360,10 +1315,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>283.46500000000009</v>
@@ -1371,10 +1326,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68">
         <v>386.65400000000005</v>
@@ -1382,10 +1337,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>356.47500000000002</v>
@@ -1393,10 +1348,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>1067.1317814000004</v>
@@ -1404,10 +1359,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C71">
         <v>745.13910330100009</v>
@@ -1415,10 +1370,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>903.44100000000014</v>
@@ -1426,10 +1381,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <v>2223.8416422800001</v>
@@ -1437,10 +1392,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74">
         <v>1592.7509236080002</v>
@@ -1448,10 +1403,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>797.63300000000004</v>
@@ -1459,10 +1414,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C76">
         <v>805.71399999999994</v>
@@ -1470,10 +1425,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>672.02913492000005</v>
@@ -1481,10 +1436,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C78">
         <v>1253.9952952364001</v>
@@ -1492,10 +1447,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C79">
         <v>985.22281852177014</v>
@@ -1503,10 +1458,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C80">
         <v>2127.39077666196</v>
@@ -1514,10 +1469,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>6045.5407103401603</v>
@@ -1525,10 +1480,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>8245.4956605481511</v>
@@ -1536,10 +1491,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>27240.953242635092</v>
@@ -1547,10 +1502,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <v>2958.0869012325998</v>
@@ -1558,10 +1513,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85">
         <v>5381.1179906010957</v>
@@ -1569,10 +1524,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>14447.465116818054</v>
@@ -1580,10 +1535,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C87">
         <v>33514.038324519541</v>
@@ -1591,10 +1546,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C88">
         <v>33048.428580687185</v>
@@ -1602,10 +1557,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>1009.2030000000001</v>
@@ -1613,10 +1568,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>458.79100000000005</v>
@@ -1624,10 +1579,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>41284.987999999998</v>
@@ -1635,10 +1590,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>67730.182000000001</v>
@@ -1646,10 +1601,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>87430.546000000002</v>
@@ -1657,10 +1612,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94">
         <v>90703.762000000017</v>
@@ -1668,10 +1623,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95">
         <v>115808.43900000001</v>
@@ -1679,10 +1634,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96">
         <v>187226.41900000002</v>
@@ -1690,10 +1645,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97">
         <v>297743.14600000018</v>
@@ -1701,10 +1656,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C98">
         <v>374119.68799999973</v>
@@ -1712,10 +1667,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>605892.44680645387</v>
@@ -1723,10 +1678,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>624958.00410006929</v>
@@ -1734,10 +1689,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C101">
         <v>771805.81070242659</v>
@@ -1745,10 +1700,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>864224.30818862899</v>
@@ -1756,10 +1711,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C103">
         <v>1102921.7210274127</v>
@@ -1767,10 +1722,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C104">
         <v>1292694.9278523561</v>
@@ -1778,10 +1733,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C105">
         <v>1551769.9983570208</v>
@@ -1789,10 +1744,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>1719767.4065123925</v>
@@ -1800,10 +1755,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <v>1752467.4839763092</v>
@@ -1811,10 +1766,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C108">
         <v>1491459.2886709156</v>
@@ -1822,10 +1777,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C109">
         <v>2109605.5739922291</v>
@@ -1833,10 +1788,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>2845528.9305711677</v>
@@ -1844,10 +1799,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>3131402.1550927437</v>
@@ -1855,10 +1810,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>3677104.1010850924</v>
@@ -1866,10 +1821,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C113">
         <v>3826125.4519493384</v>
@@ -1877,10 +1832,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C114">
         <v>4067100.1757873632</v>
@@ -1888,10 +1843,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C115">
         <v>4092418.2035511131</v>
@@ -1899,10 +1854,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C116">
         <v>4721678.8248568065</v>
@@ -1910,10 +1865,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C117">
         <v>5487102.9803682165</v>
@@ -1921,10 +1876,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>1176714.6370000008</v>
@@ -1932,10 +1887,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <v>2475968.1680000024</v>
@@ -1943,10 +1898,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>2892137.9589999989</v>
@@ -1954,10 +1909,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>10902963.074999992</v>
@@ -1965,10 +1920,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C122">
         <v>14748315.050000001</v>
@@ -1976,10 +1931,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123">
         <v>18237491.198000006</v>
@@ -1987,10 +1942,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124">
         <v>19842979.574000016</v>
@@ -1998,10 +1953,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C125">
         <v>21017076.953999992</v>
@@ -2009,10 +1964,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C126">
         <v>17760571.682000004</v>
@@ -2020,10 +1975,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C127">
         <v>17691821.273000009</v>
@@ -2031,10 +1986,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C128">
         <v>20639747.502426099</v>
@@ -2042,10 +1997,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129">
         <v>19759964.581451256</v>
@@ -2053,10 +2008,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>20678644.036809281</v>
@@ -2064,10 +2019,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C131">
         <v>23971582.43758022</v>
@@ -2075,10 +2030,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C132">
         <v>27627509.017145827</v>
@@ -2086,10 +2041,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C133">
         <v>28412982.974791098</v>
@@ -2097,10 +2052,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C134">
         <v>30834517.827378519</v>
@@ -2108,10 +2063,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C135">
         <v>30016861.60570249</v>
@@ -2119,10 +2074,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C136">
         <v>28318286.314973515</v>
@@ -2130,10 +2085,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C137">
         <v>24809978.115794163</v>
@@ -2141,10 +2096,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C138">
         <v>32958991.776091885</v>
@@ -2152,10 +2107,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C139">
         <v>40448728.735950582</v>
@@ -2163,10 +2118,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C140">
         <v>42530128.231447652</v>
@@ -2174,10 +2129,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C141">
         <v>42961033.888508491</v>
@@ -2185,10 +2140,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C142">
         <v>37520484.699630544</v>
@@ -2196,10 +2151,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C143">
         <v>33530186.507858183</v>
@@ -2207,10 +2162,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C144">
         <v>30460997.271084998</v>
@@ -2218,10 +2173,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C145">
         <v>33145609.370739795</v>
@@ -2229,10 +2184,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C146">
         <v>36083395.074348092</v>
@@ -2240,10 +2195,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>3283681.9509999994</v>
@@ -2251,10 +2206,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>4374957.9499999974</v>
@@ -2262,10 +2217,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C149">
         <v>16921074.300000008</v>
@@ -2273,10 +2228,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C150">
         <v>13651802.127</v>
@@ -2284,10 +2239,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C151">
         <v>19709699.955999997</v>
@@ -2295,10 +2250,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152">
         <v>20112076.696999967</v>
@@ -2306,10 +2261,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153">
         <v>19570756.320999999</v>
@@ -2317,10 +2272,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C154">
         <v>30595823.248999998</v>
@@ -2328,10 +2283,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155">
         <v>24626223.399000019</v>
@@ -2339,10 +2294,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C156">
         <v>21134349.264999989</v>
@@ -2350,10 +2305,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C157">
         <v>23033387.405669149</v>
@@ -2361,10 +2316,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158">
         <v>20847074.192282878</v>
@@ -2372,10 +2327,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C159">
         <v>22567649.577425748</v>
@@ -2383,10 +2338,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C160">
         <v>25121391.567776822</v>
@@ -2394,10 +2349,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C161">
         <v>27688698.296524025</v>
@@ -2405,10 +2360,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C162">
         <v>24589646.821023334</v>
@@ -2416,10 +2371,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C163">
         <v>27512866.743792254</v>
@@ -2427,10 +2382,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C164">
         <v>27896207.24274287</v>
@@ -2438,10 +2393,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C165">
         <v>25219769.179228693</v>
@@ -2449,10 +2404,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C166">
         <v>20940662.5506698</v>
@@ -2460,10 +2415,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C167">
         <v>23374760.639730114</v>
@@ -2471,10 +2426,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C168">
         <v>24929492.793217693</v>
@@ -2482,10 +2437,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C169">
         <v>25169122.339333758</v>
@@ -2493,10 +2448,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C170">
         <v>28596582.85462435</v>
@@ -2504,10 +2459,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C171">
         <v>25728981.826138586</v>
@@ -2515,10 +2470,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C172">
         <v>22825295.71040263</v>
@@ -2526,10 +2481,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C173">
         <v>22982614.077844091</v>
@@ -2537,10 +2492,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C174">
         <v>21488194.814162116</v>
@@ -2548,10 +2503,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C175">
         <v>20988281.350581869</v>
@@ -2559,10 +2514,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>269651.66099999991</v>
@@ -2570,10 +2525,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>216996.46000000005</v>
@@ -2581,10 +2536,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>333520.15699999983</v>
@@ -2592,10 +2547,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C179">
         <v>508557.53999999986</v>
@@ -2603,10 +2558,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C180">
         <v>782874.67999999912</v>
@@ -2614,10 +2569,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181">
         <v>973464.25400000031</v>
@@ -2625,10 +2580,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182">
         <v>803485.75100000016</v>
@@ -2636,10 +2591,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C183">
         <v>1030765.3920000008</v>
@@ -2647,10 +2602,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C184">
         <v>1082141.0420000013</v>
@@ -2658,10 +2613,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C185">
         <v>1260449.5850000002</v>
@@ -2669,10 +2624,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C186">
         <v>1817806.8475124403</v>
@@ -2680,10 +2635,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C187">
         <v>2118144.6186529645</v>
@@ -2691,10 +2646,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C188">
         <v>2066618.9235667938</v>
@@ -2702,10 +2657,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C189">
         <v>2560335.4793017725</v>
@@ -2713,10 +2668,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C190">
         <v>2966833.7728351592</v>
@@ -2724,10 +2679,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C191">
         <v>3519938.5945706586</v>
@@ -2735,10 +2690,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C192">
         <v>3563047.0116331019</v>
@@ -2746,10 +2701,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C193">
         <v>4428746.6857976848</v>
@@ -2757,10 +2712,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C194">
         <v>4545761.065189179</v>
@@ -2768,10 +2723,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C195">
         <v>4506531.2522176802</v>
@@ -2779,10 +2734,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C196">
         <v>6109482.6064051678</v>
@@ -2790,10 +2745,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C197">
         <v>7157669.091828757</v>
@@ -2801,10 +2756,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C198">
         <v>6904738.5080300914</v>
@@ -2812,10 +2767,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C199">
         <v>7304199.6400981108</v>
@@ -2823,10 +2778,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C200">
         <v>7703786.7124627326</v>
@@ -2834,10 +2789,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C201">
         <v>7738067.2088673478</v>
@@ -2845,10 +2800,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C202">
         <v>7794783.1539076585</v>
@@ -2856,10 +2811,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C203">
         <v>8360854.6797610922</v>
@@ -2867,10 +2822,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C204">
         <v>8454963.7161329761</v>
@@ -2878,10 +2833,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C205">
         <v>569714.90299999982</v>
@@ -2889,10 +2844,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C206">
         <v>1101927.3359999997</v>
@@ -2900,10 +2855,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C207">
         <v>1392048.0200000007</v>
@@ -2911,10 +2866,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C208">
         <v>1544564.2380000008</v>
@@ -2922,10 +2877,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C209">
         <v>1809815.5819999981</v>
@@ -2933,10 +2888,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210">
         <v>2268070.8949999996</v>
@@ -2944,10 +2899,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211">
         <v>2373934.2440000004</v>
@@ -2955,10 +2910,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C212">
         <v>2935899.0680000018</v>
@@ -2966,10 +2921,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C213">
         <v>2236420.1570000011</v>
@@ -2977,10 +2932,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C214">
         <v>2574542.4250000026</v>
@@ -2988,10 +2943,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C215">
         <v>3293494.7896634704</v>
@@ -2999,10 +2954,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C216">
         <v>3177120.2169815684</v>
@@ -3010,10 +2965,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C217">
         <v>3001091.821826546</v>
@@ -3021,10 +2976,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C218">
         <v>3642918.651562924</v>
@@ -3032,10 +2987,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C219">
         <v>4137693.0633047717</v>
@@ -3043,10 +2998,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C220">
         <v>4242160.9405868202</v>
@@ -3054,10 +3009,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C221">
         <v>4820240.9181132158</v>
@@ -3065,10 +3020,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C222">
         <v>5510940.0445500435</v>
@@ -3076,10 +3031,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C223">
         <v>6339814.3475524941</v>
@@ -3087,10 +3042,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C224">
         <v>5444827.4067955632</v>
@@ -3098,10 +3053,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C225">
         <v>7324400.5328801665</v>
@@ -3109,10 +3064,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C226">
         <v>9577986.6371824089</v>
@@ -3120,10 +3075,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C227">
         <v>10668882.943481231</v>
@@ -3131,10 +3086,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C228">
         <v>10542542.467963347</v>
@@ -3142,10 +3097,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C229">
         <v>10854721.723792553</v>
@@ -3153,10 +3108,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C230">
         <v>9353223.5072922576</v>
@@ -3164,10 +3119,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C231">
         <v>9330032.7896331288</v>
@@ -3175,10 +3130,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C232">
         <v>9797062.7831626516</v>
@@ -3186,10 +3141,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C233">
         <v>10668538.806955237</v>
@@ -3197,10 +3152,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>1181723.8870000008</v>
@@ -3208,10 +3163,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C235">
         <v>1847462.2469999993</v>
@@ -3219,10 +3174,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C236">
         <v>2240138.9469999992</v>
@@ -3230,10 +3185,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C237">
         <v>2885546.1030000011</v>
@@ -3241,10 +3196,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C238">
         <v>4142364.8120000018</v>
@@ -3252,10 +3207,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239">
         <v>5024421.7429999989</v>
@@ -3263,10 +3218,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240">
         <v>5053897.4900000049</v>
@@ -3274,10 +3229,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C241">
         <v>5220580.5410000011</v>
@@ -3285,10 +3240,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C242">
         <v>3311842.437000006</v>
@@ -3296,10 +3251,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C243">
         <v>4485172.8280000035</v>
@@ -3307,10 +3262,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C244">
         <v>5885576.9857637268</v>
@@ -3318,10 +3273,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C245">
         <v>6299035.2757442277</v>
@@ -3329,10 +3284,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C246">
         <v>7046476.793792638</v>
@@ -3340,10 +3295,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C247">
         <v>7713633.5629295977</v>
@@ -3351,10 +3306,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C248">
         <v>8025786.0017208047</v>
@@ -3362,10 +3317,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C249">
         <v>7914538.8314608568</v>
@@ -3373,10 +3328,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C250">
         <v>9178696.2340247836</v>
@@ -3384,10 +3339,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C251">
         <v>9826774.7372425646</v>
@@ -3395,10 +3350,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C252">
         <v>9663032.1224386692</v>
@@ -3406,10 +3361,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C253">
         <v>7901356.612090162</v>
@@ -3417,10 +3372,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C254">
         <v>10490423.111950831</v>
@@ -3428,10 +3383,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C255">
         <v>13467566.73336071</v>
@@ -3439,10 +3394,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C256">
         <v>12734853.103843644</v>
@@ -3450,10 +3405,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C257">
         <v>14647228.212538302</v>
@@ -3461,10 +3416,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C258">
         <v>16479430.327961607</v>
@@ -3472,10 +3427,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C259">
         <v>17289705.093062282</v>
@@ -3483,10 +3438,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C260">
         <v>15960690.072595021</v>
@@ -3494,10 +3449,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C261">
         <v>16873105.469029315</v>
@@ -3505,10 +3460,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C262">
         <v>18155241.773964331</v>
@@ -3516,10 +3471,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C263">
         <v>729538.14100000006</v>
@@ -3527,10 +3482,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C264">
         <v>930894.51999999979</v>
@@ -3538,10 +3493,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C265">
         <v>1009621.6140000002</v>
@@ -3549,10 +3504,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C266">
         <v>1311062.1460000004</v>
@@ -3560,10 +3515,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C267">
         <v>1802502.9839999995</v>
@@ -3571,10 +3526,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C268">
         <v>1906654.9330000002</v>
@@ -3582,10 +3537,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C269">
         <v>1875508.5059999996</v>
@@ -3593,10 +3548,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C270">
         <v>2042035.6470000006</v>
@@ -3604,10 +3559,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C271">
         <v>1377856.0279999995</v>
@@ -3615,10 +3570,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C272">
         <v>1619949.2749999999</v>
@@ -3626,10 +3581,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C273">
         <v>1929718.9375238284</v>
@@ -3637,10 +3592,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C274">
         <v>1664653.7970516004</v>
@@ -3648,10 +3603,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C275">
         <v>1756237.3669688676</v>
@@ -3659,10 +3614,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C276">
         <v>1960087.7757007214</v>
@@ -3670,10 +3625,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C277">
         <v>2219728.6103728148</v>
@@ -3681,10 +3636,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C278">
         <v>2412032.6505658799</v>
@@ -3692,10 +3647,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C279">
         <v>2572227.4477171693</v>
@@ -3703,10 +3658,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C280">
         <v>3318588.8837021235</v>
@@ -3714,10 +3669,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C281">
         <v>3791372.9810374174</v>
@@ -3725,10 +3680,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C282">
         <v>3476648.6521569057</v>
@@ -3736,10 +3691,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C283">
         <v>3943185.3691054424</v>
@@ -3747,10 +3702,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C284">
         <v>5021222.351927381</v>
@@ -3758,10 +3713,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C285">
         <v>6912849.0995089281</v>
@@ -3769,10 +3724,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C286">
         <v>7962562.4231773298</v>
@@ -3780,10 +3735,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C287">
         <v>7306272.5902151205</v>
@@ -3791,10 +3746,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C288">
         <v>7249367.9777648812</v>
@@ -3802,10 +3757,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C289">
         <v>5726179.8332094429</v>
@@ -3813,10 +3768,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C290">
         <v>5091216.5954568516</v>
@@ -3824,10 +3779,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C291">
         <v>5017656.1008531321</v>
@@ -3835,10 +3790,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C292">
         <v>7917.7450000000008</v>
@@ -3846,10 +3801,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C293">
         <v>8446.8460000000014</v>
@@ -3857,10 +3812,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C294">
         <v>8469.2240000000002</v>
@@ -3868,10 +3823,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C295">
         <v>11143.424999999999</v>
@@ -3879,10 +3834,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C296">
         <v>12421.018000000004</v>
@@ -3890,10 +3845,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C297">
         <v>11381.727999999999</v>
@@ -3901,10 +3856,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C298">
         <v>10059.960000000001</v>
@@ -3912,10 +3867,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C299">
         <v>9725.8399999999965</v>
@@ -3923,10 +3878,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C300">
         <v>9864.5459999999985</v>
@@ -3934,10 +3889,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C301">
         <v>29399.86199999999</v>
@@ -3945,10 +3900,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C302">
         <v>84495.306072764288</v>
@@ -3956,10 +3911,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C303">
         <v>47911.974514999718</v>
@@ -3967,10 +3922,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C304">
         <v>37693.257512887096</v>
@@ -3978,10 +3933,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C305">
         <v>51010.507257063909</v>
@@ -3989,10 +3944,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C306">
         <v>52888.270918813017</v>
@@ -4000,10 +3955,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C307">
         <v>22266.346599918546</v>
@@ -4011,10 +3966,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C308">
         <v>27357.798962143657</v>
@@ -4022,10 +3977,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C309">
         <v>27419.503527025779</v>
@@ -4033,10 +3988,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C310">
         <v>31773.026900047305</v>
@@ -4044,10 +3999,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C311">
         <v>31586.288466539998</v>
@@ -4055,10 +4010,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C312">
         <v>32580.682184959045</v>
@@ -4066,10 +4021,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C313">
         <v>36891.296128905793</v>
@@ -4077,10 +4032,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C314">
         <v>35085.847438255594</v>
@@ -4088,10 +4043,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C315">
         <v>51208.763918705161</v>
@@ -4099,10 +4054,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C316">
         <v>40836.697505858276</v>
@@ -4110,10 +4065,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C317">
         <v>43605.798083957699</v>
@@ -4121,10 +4076,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C318">
         <v>46742.224714063384</v>
@@ -4132,10 +4087,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C319">
         <v>52364.406501731275</v>
@@ -4143,10 +4098,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C320">
         <v>58556.891723829198</v>
@@ -4154,10 +4109,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C321">
         <v>2677.1840000000002</v>
@@ -4165,10 +4120,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C322">
         <v>2583.2239999999997</v>
@@ -4176,10 +4131,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C323">
         <v>20846.353999999999</v>
@@ -4187,10 +4142,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C324">
         <v>22084.268000000004</v>
@@ -4198,10 +4153,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C325">
         <v>15932.572999999999</v>
@@ -4209,10 +4164,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C326">
         <v>23222.230000000003</v>
@@ -4220,10 +4175,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C327">
         <v>25581.601999999999</v>
@@ -4231,10 +4186,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C328">
         <v>30363.855999999996</v>
@@ -4242,10 +4197,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C329">
         <v>30712.405000000006</v>
@@ -4253,10 +4208,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C330">
         <v>50644.28899999999</v>
@@ -4264,10 +4219,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C331">
         <v>81533.340654532265</v>
@@ -4275,10 +4230,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C332">
         <v>70776.655441673982</v>
@@ -4286,10 +4241,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C333">
         <v>81582.060368984516</v>
@@ -4297,10 +4252,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C334">
         <v>91338.778118300004</v>
@@ -4308,10 +4263,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C335">
         <v>124548.21699292</v>
@@ -4319,10 +4274,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C336">
         <v>105706.37627760836</v>
@@ -4330,10 +4285,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C337">
         <v>107162.39730126222</v>
@@ -4341,10 +4296,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C338">
         <v>65356.877783270611</v>
@@ -4352,10 +4307,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C339">
         <v>120224.51526026745</v>
@@ -4363,10 +4318,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C340">
         <v>350254.40404025716</v>
@@ -4374,10 +4329,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C341">
         <v>345915.79476740101</v>
@@ -4385,10 +4340,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C342">
         <v>702621.42023111403</v>
@@ -4396,10 +4351,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C343">
         <v>765550.62143266655</v>
@@ -4407,10 +4362,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C344">
         <v>721164.59237267135</v>
@@ -4418,10 +4373,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C345">
         <v>602608.77962533373</v>
@@ -4429,10 +4384,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C346">
         <v>371224.94508236891</v>
@@ -4440,10 +4395,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C347">
         <v>168402.41085343427</v>
@@ -4451,10 +4406,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C348">
         <v>101360.30874420675</v>
@@ -4462,10 +4417,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C349">
         <v>107761.44756652541</v>
@@ -4473,10 +4428,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C350">
         <v>26794.498000000003</v>
@@ -4484,10 +4439,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C351">
         <v>39440.898999999998</v>
@@ -4495,10 +4450,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C352">
         <v>136527.16399999999</v>
@@ -4506,10 +4461,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C353">
         <v>150375.14300000001</v>
@@ -4517,10 +4472,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C354">
         <v>174805.73000000004</v>
@@ -4528,10 +4483,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C355">
         <v>254909.93800000008</v>
@@ -4539,10 +4494,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C356">
         <v>230506.50600000008</v>
@@ -4550,10 +4505,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C357">
         <v>249952.09999999986</v>
@@ -4561,10 +4516,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C358">
         <v>257073.79399999994</v>
@@ -4572,10 +4527,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C359">
         <v>333667.29399999976</v>
@@ -4583,10 +4538,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C360">
         <v>504888.31584334362</v>
@@ -4594,10 +4549,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C361">
         <v>433829.32767578756</v>
@@ -4605,10 +4560,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C362">
         <v>433904.10840115044</v>
@@ -4616,10 +4571,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C363">
         <v>409281.92788365361</v>
@@ -4627,10 +4582,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C364">
         <v>345238.38668256166</v>
@@ -4638,10 +4593,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C365">
         <v>371871.07109720819</v>
@@ -4649,10 +4604,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C366">
         <v>411066.02943664818</v>
@@ -4660,10 +4615,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C367">
         <v>459265.40263855836</v>
@@ -4671,10 +4626,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C368">
         <v>525368.91812063439</v>
@@ -4682,10 +4637,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C369">
         <v>532961.53029889741</v>
@@ -4693,10 +4648,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C370">
         <v>768936.41274391185</v>
@@ -4704,10 +4659,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C371">
         <v>1075952.7199194164</v>
@@ -4715,10 +4670,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C372">
         <v>1188647.3351091091</v>
@@ -4726,10 +4681,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C373">
         <v>1712590.0506983623</v>
@@ -4737,10 +4692,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C374">
         <v>1739831.5974692458</v>
@@ -4748,10 +4703,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C375">
         <v>1765644.9328266773</v>
@@ -4759,10 +4714,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C376">
         <v>1957930.9637269215</v>
@@ -4770,10 +4725,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C377">
         <v>2354924.4031499652</v>
@@ -4781,10 +4736,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C378">
         <v>3022296.3793517817</v>
@@ -4792,10 +4747,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C379">
         <v>41875.578999999998</v>
@@ -4803,10 +4758,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C380">
         <v>55597.667999999998</v>
@@ -4814,10 +4769,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C381">
         <v>73908.491999999998</v>
@@ -4825,10 +4780,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C382">
         <v>91392.259000000049</v>
@@ -4836,10 +4791,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C383">
         <v>83613.908000000025</v>
@@ -4847,10 +4802,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C384">
         <v>107323.76600000003</v>
@@ -4858,10 +4813,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C385">
         <v>96555.022999999972</v>
@@ -4869,10 +4824,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C386">
         <v>107084.512</v>
@@ -4880,10 +4835,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C387">
         <v>88686.068000000043</v>
@@ -4891,10 +4846,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C388">
         <v>144728.41600000011</v>
@@ -4902,10 +4857,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C389">
         <v>214423.49518105455</v>
@@ -4913,10 +4868,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C390">
         <v>131698.64203121388</v>
@@ -4924,10 +4879,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C391">
         <v>90171.789151945559</v>
@@ -4935,10 +4890,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C392">
         <v>147007.51621818604</v>
@@ -4946,10 +4901,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C393">
         <v>139900.92617566523</v>
@@ -4957,10 +4912,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C394">
         <v>141330.51092087582</v>
@@ -4968,10 +4923,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C395">
         <v>177593.43116205218</v>
@@ -4979,10 +4934,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C396">
         <v>264701.18619204115</v>
@@ -4990,10 +4945,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C397">
         <v>292579.57771374431</v>
@@ -5001,10 +4956,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C398">
         <v>269175.03040896141</v>
@@ -5012,10 +4967,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C399">
         <v>466691.77624695492</v>
@@ -5023,10 +4978,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C400">
         <v>807785.57226884225</v>
@@ -5034,10 +4989,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C401">
         <v>1419880.3168595033</v>
@@ -5045,10 +5000,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C402">
         <v>1668099.0313724629</v>
@@ -5056,10 +5011,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C403">
         <v>1776345.2221132442</v>
@@ -5067,10 +5022,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C404">
         <v>585754.25455905357</v>
@@ -5078,10 +5033,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C405">
         <v>532042.79611211922</v>
@@ -5089,10 +5044,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C406">
         <v>514870.86641169578</v>
@@ -5100,10 +5055,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C407">
         <v>607128.92140021373</v>
@@ -5111,10 +5066,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C408">
         <v>222624.95699999999</v>
@@ -5122,10 +5077,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C409">
         <v>309108.32700000022</v>
@@ -5133,10 +5088,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C410">
         <v>320792.65400000021</v>
@@ -5144,10 +5099,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C411">
         <v>330905.53600000002</v>
@@ -5155,10 +5110,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C412">
         <v>411607.57000000007</v>
@@ -5166,10 +5121,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C413">
         <v>527074.21700000006</v>
@@ -5177,10 +5132,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C414">
         <v>353661.13499999989</v>
@@ -5188,10 +5143,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C415">
         <v>354210.03200000012</v>
@@ -5199,10 +5154,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C416">
         <v>350181.44699999987</v>
@@ -5210,10 +5165,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C417">
         <v>470064.17800000013</v>
@@ -5221,10 +5176,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C418">
         <v>453468.97944793513</v>
@@ -5232,10 +5187,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C419">
         <v>554415.20420839055</v>
@@ -5243,10 +5198,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C420">
         <v>838468.02147049422</v>
@@ -5254,10 +5209,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C421">
         <v>1071296.4649473336</v>
@@ -5265,10 +5220,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C422">
         <v>1486200.6444201225</v>
@@ -5276,10 +5231,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C423">
         <v>1698195.9200204373</v>
@@ -5287,10 +5242,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C424">
         <v>2018437.6277246345</v>
@@ -5298,10 +5253,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C425">
         <v>2744704.2822899497</v>
@@ -5309,10 +5264,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C426">
         <v>3064156.3450920908</v>
@@ -5320,10 +5275,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C427">
         <v>3097097.8551098779</v>
@@ -5331,10 +5286,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C428">
         <v>3642789.0045225774</v>
@@ -5342,10 +5297,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C429">
         <v>3969442.5731870211</v>
@@ -5353,10 +5308,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C430">
         <v>4062747.2148252237</v>
@@ -5364,10 +5319,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C431">
         <v>4957972.1285972595</v>
@@ -5375,10 +5330,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C432">
         <v>5121741.8201762708</v>
@@ -5386,10 +5341,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C433">
         <v>5755783.5762990564</v>
@@ -5397,10 +5352,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C434">
         <v>4999293.6003778726</v>
@@ -5408,10 +5363,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C435">
         <v>5312127.4284366956</v>
@@ -5419,10 +5374,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C436">
         <v>6040819.886067017</v>
@@ -5430,10 +5385,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C437">
         <v>306793.88300000009</v>
@@ -5441,10 +5396,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C438">
         <v>505987.87900000019</v>
@@ -5452,10 +5407,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C439">
         <v>606397.76100000006</v>
@@ -5463,10 +5418,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C440">
         <v>945631.91200000001</v>
@@ -5474,10 +5429,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C441">
         <v>1115877.5639999995</v>
@@ -5485,10 +5440,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C442">
         <v>1295079.5619999995</v>
@@ -5496,10 +5451,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C443">
         <v>1282016.8829999999</v>
@@ -5507,10 +5462,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C444">
         <v>1870526.8980000005</v>
@@ -5518,10 +5473,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C445">
         <v>1601728.037999999</v>
@@ -5529,10 +5484,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C446">
         <v>1763709.4489999998</v>
@@ -5540,10 +5495,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C447">
         <v>1958602.3641289328</v>
@@ -5551,10 +5506,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C448">
         <v>1792115.1933389353</v>
@@ -5562,10 +5517,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C449">
         <v>1849272.8850648403</v>
@@ -5573,10 +5528,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C450">
         <v>1878861.9586789303</v>
@@ -5584,10 +5539,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C451">
         <v>2090872.8668204297</v>
@@ -5595,10 +5550,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C452">
         <v>2111119.1493412722</v>
@@ -5606,10 +5561,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C453">
         <v>2238223.3142830501</v>
@@ -5617,10 +5572,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C454">
         <v>2324731.4337383509</v>
@@ -5628,10 +5583,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C455">
         <v>2235850.8639402557</v>
@@ -5639,10 +5594,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C456">
         <v>2232356.0200411016</v>
@@ -5650,10 +5605,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C457">
         <v>2867422.4129362977</v>
@@ -5661,10 +5616,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C458">
         <v>3651780.1623762334</v>
@@ -5672,10 +5627,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C459">
         <v>4244941.073064792</v>
@@ -5683,10 +5638,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C460">
         <v>5039219.2889171485</v>
@@ -5694,10 +5649,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C461">
         <v>4563800.1379663497</v>
@@ -5705,10 +5660,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C462">
         <v>5646116.3840703368</v>
@@ -5716,10 +5671,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C463">
         <v>7010598.5598548539</v>
@@ -5727,10 +5682,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C464">
         <v>7614622.8857892128</v>
@@ -5738,10 +5693,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C465">
         <v>7223870.5912251314</v>
@@ -5749,10 +5704,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C466">
         <v>1292437.1509999991</v>
@@ -5760,10 +5715,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C467">
         <v>1829135.8960000002</v>
@@ -5771,10 +5726,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C468">
         <v>2808175.6919999956</v>
@@ -5782,10 +5737,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C469">
         <v>2987391.7829999989</v>
@@ -5793,10 +5748,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C470">
         <v>2923531.5140000028</v>
@@ -5804,10 +5759,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C471">
         <v>2789833.168000001</v>
@@ -5815,10 +5770,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C472">
         <v>2642712.7800000012</v>
@@ -5826,10 +5781,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C473">
         <v>2811567.4999999949</v>
@@ -5837,10 +5792,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C474">
         <v>1853005.9480000003</v>
@@ -5848,10 +5803,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C475">
         <v>2169770.2020000005</v>
@@ -5859,10 +5814,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C476">
         <v>2694097.8509537545</v>
@@ -5870,10 +5825,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C477">
         <v>2430239.9996631057</v>
@@ -5881,10 +5836,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C478">
         <v>2512596.9721257235</v>
@@ -5892,10 +5847,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C479">
         <v>3062094.8455079324</v>
@@ -5903,10 +5858,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C480">
         <v>3282238.1565417256</v>
@@ -5914,10 +5869,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C481">
         <v>3281999.3185650837</v>
@@ -5925,10 +5880,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C482">
         <v>3691103.7235999694</v>
@@ -5936,10 +5891,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C483">
         <v>5597636.9151063273</v>
@@ -5947,10 +5902,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C484">
         <v>4037873.1894591548</v>
@@ -5958,10 +5913,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C485">
         <v>3010265.4537949949</v>
@@ -5969,10 +5924,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C486">
         <v>3017937.812796399</v>
@@ -5980,10 +5935,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C487">
         <v>3806473.2822360252</v>
@@ -5991,10 +5946,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C488">
         <v>4133577.3741672519</v>
@@ -6002,10 +5957,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C489">
         <v>4720380.0772800986</v>
@@ -6013,10 +5968,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C490">
         <v>4565381.5153300576</v>
@@ -6024,10 +5979,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C491">
         <v>4271405.0111188469</v>
@@ -6035,10 +5990,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C492">
         <v>3772163.1250592954</v>
@@ -6046,10 +6001,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C493">
         <v>3567201.0410097823</v>
@@ -6057,10 +6012,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C494">
         <v>3376391.1017043963</v>
@@ -6068,10 +6023,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C495">
         <v>214842.85499999992</v>
@@ -6079,10 +6034,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C496">
         <v>300155.75999999989</v>
@@ -6090,10 +6045,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C497">
         <v>405295.75900000014</v>
@@ -6101,10 +6056,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C498">
         <v>702889.52200000046</v>
@@ -6112,10 +6067,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C499">
         <v>838353.45699999959</v>
@@ -6123,10 +6078,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C500">
         <v>972531.11799999978</v>
@@ -6134,10 +6089,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C501">
         <v>947193.51699999999</v>
@@ -6145,10 +6100,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C502">
         <v>1279595.0269999993</v>
@@ -6156,10 +6111,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C503">
         <v>1261975.1490000016</v>
@@ -6167,10 +6122,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C504">
         <v>1317453.5469999986</v>
@@ -6178,10 +6133,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C505">
         <v>1550590.1152126994</v>
@@ -6189,10 +6144,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C506">
         <v>1365906.891124652</v>
@@ -6200,10 +6155,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C507">
         <v>1408204.6149025031</v>
@@ -6211,10 +6166,10 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C508">
         <v>1641444.3860596034</v>
@@ -6222,10 +6177,10 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C509">
         <v>1786463.9684543959</v>
@@ -6233,10 +6188,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C510">
         <v>1848274.1412928577</v>
@@ -6244,10 +6199,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C511">
         <v>1835304.627520038</v>
@@ -6255,10 +6210,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C512">
         <v>1934594.7907709945</v>
@@ -6266,10 +6221,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C513">
         <v>2070122.4389657176</v>
@@ -6277,10 +6232,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C514">
         <v>1791215.9483576107</v>
@@ -6288,10 +6243,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C515">
         <v>2211654.9150394942</v>
@@ -6299,10 +6254,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C516">
         <v>2838449.5651682229</v>
@@ -6310,10 +6265,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C517">
         <v>2580870.6169725382</v>
@@ -6321,10 +6276,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C518">
         <v>2851451.6749736471</v>
@@ -6332,10 +6287,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C519">
         <v>2990887.9786983291</v>
@@ -6343,10 +6298,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C520">
         <v>2971906.2919667484</v>
@@ -6354,10 +6309,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C521">
         <v>2885706.18162863</v>
@@ -6365,10 +6320,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C522">
         <v>2896935.2518187184</v>
@@ -6376,10 +6331,10 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C523">
         <v>3012669.3420892032</v>
@@ -6387,10 +6342,10 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C524">
         <v>529542.20300000021</v>
@@ -6398,10 +6353,10 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C525">
         <v>725520.61899999995</v>
@@ -6409,10 +6364,10 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C526">
         <v>900410.78600000008</v>
@@ -6420,10 +6375,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C527">
         <v>1095666.666</v>
@@ -6431,10 +6386,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C528">
         <v>1373631.2269999995</v>
@@ -6442,10 +6397,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C529">
         <v>1723449.0510000011</v>
@@ -6453,10 +6408,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C530">
         <v>1606336.0200000007</v>
@@ -6464,10 +6419,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C531">
         <v>1856441.7560000008</v>
@@ -6475,10 +6430,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C532">
         <v>1612285.3110000005</v>
@@ -6486,10 +6441,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C533">
         <v>1802583.216999999</v>
@@ -6497,10 +6452,10 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C534">
         <v>2311262.9071906186</v>
@@ -6508,10 +6463,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C535">
         <v>2170598.9099365114</v>
@@ -6519,10 +6474,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C536">
         <v>2276801.4417047733</v>
@@ -6530,10 +6485,10 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C537">
         <v>2467126.7413712433</v>
@@ -6541,10 +6496,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C538">
         <v>2802690.7734020413</v>
@@ -6552,10 +6507,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C539">
         <v>2907691.1392130516</v>
@@ -6563,10 +6518,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C540">
         <v>3068999.753361973</v>
@@ -6574,10 +6529,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C541">
         <v>3358288.4117001714</v>
@@ -6585,10 +6540,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C542">
         <v>3910252.6211514468</v>
@@ -6596,10 +6551,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C543">
         <v>3232518.7646664884</v>
@@ -6607,10 +6562,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C544">
         <v>4415859.459381056</v>
@@ -6618,10 +6573,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C545">
         <v>5283672.0384161584</v>
@@ -6629,10 +6584,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C546">
         <v>5554085.3881786242</v>
@@ -6640,10 +6595,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C547">
         <v>5656341.9250728935</v>
@@ -6651,10 +6606,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C548">
         <v>5688524.1025603395</v>
@@ -6662,10 +6617,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C549">
         <v>5586955.7117901277</v>
@@ -6673,10 +6628,10 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C550">
         <v>5484053.7688024109</v>
@@ -6684,10 +6639,10 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C551">
         <v>5611388.3510080632</v>
@@ -6695,10 +6650,10 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C552">
         <v>6135694.7919302443</v>
@@ -6706,10 +6661,10 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C553">
         <v>31446.293999999998</v>
@@ -6717,10 +6672,10 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C554">
         <v>104820.912</v>
@@ -6728,10 +6683,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C555">
         <v>225206.40500000003</v>
@@ -6739,10 +6694,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C556">
         <v>462319.68599999981</v>
@@ -6750,10 +6705,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C557">
         <v>588996.12100000016</v>
@@ -6761,10 +6716,10 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C558">
         <v>844243.01600000018</v>
@@ -6772,10 +6727,10 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C559">
         <v>1018671.8679999999</v>
@@ -6783,10 +6738,10 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C560">
         <v>1635330.5870000001</v>
@@ -6794,10 +6749,10 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C561">
         <v>1510813.1500000008</v>
@@ -6805,10 +6760,10 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C562">
         <v>1537517.9629999998</v>
@@ -6816,10 +6771,10 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C563">
         <v>1717556.8867613291</v>
@@ -6827,10 +6782,10 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C564">
         <v>1651541.3377600741</v>
@@ -6838,10 +6793,10 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C565">
         <v>2320222.5357235963</v>
@@ -6849,10 +6804,10 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C566">
         <v>2951156.6587105007</v>
@@ -6860,10 +6815,10 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C567">
         <v>3565757.0598527999</v>
@@ -6871,10 +6826,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C568">
         <v>3971702.5093329647</v>
@@ -6882,10 +6837,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C569">
         <v>4637771.2166864146</v>
@@ -6893,10 +6848,10 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C570">
         <v>6063448.9663139237</v>
@@ -6904,10 +6859,10 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C571">
         <v>7368133.1669054925</v>
@@ -6915,10 +6870,10 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C572">
         <v>7901389.7791971322</v>
@@ -6926,10 +6881,10 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C573">
         <v>10988352.469362056</v>
@@ -6937,10 +6892,10 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C574">
         <v>14439148.825859401</v>
@@ -6948,10 +6903,10 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C575">
         <v>16831961.619354226</v>
@@ -6959,10 +6914,10 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C576">
         <v>21980093.383804783</v>
@@ -6970,10 +6925,10 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C577">
         <v>25377868.522089954</v>
@@ -6981,10 +6936,10 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C578">
         <v>24591403.629145619</v>
@@ -6992,10 +6947,10 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C579">
         <v>22234050.554701339</v>
@@ -7003,10 +6958,10 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C580">
         <v>24752294.257542163</v>
@@ -7014,10 +6969,10 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C581">
         <v>28575393.74017683</v>
@@ -7028,2038 +6983,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>115639.64100000002</v>
-      </c>
-      <c r="D2">
-        <v>124630.89899999998</v>
-      </c>
-      <c r="E2">
-        <v>75533.520999999993</v>
-      </c>
-      <c r="F2">
-        <v>77294.528000000006</v>
-      </c>
-      <c r="G2">
-        <v>50351.557000000001</v>
-      </c>
-      <c r="H2">
-        <v>40460.340000000011</v>
-      </c>
-      <c r="I2">
-        <v>59165.234000000011</v>
-      </c>
-      <c r="J2">
-        <v>84434.880000000005</v>
-      </c>
-      <c r="K2">
-        <v>63956.30599999999</v>
-      </c>
-      <c r="L2">
-        <v>57881.150999999998</v>
-      </c>
-      <c r="M2">
-        <v>132872.13672637093</v>
-      </c>
-      <c r="N2">
-        <v>114379.26383351594</v>
-      </c>
-      <c r="O2">
-        <v>179896.76224464699</v>
-      </c>
-      <c r="P2">
-        <v>233637.15095127118</v>
-      </c>
-      <c r="Q2">
-        <v>271619.30356929265</v>
-      </c>
-      <c r="R2">
-        <v>279186.74865874974</v>
-      </c>
-      <c r="S2">
-        <v>243210.61581092296</v>
-      </c>
-      <c r="T2">
-        <v>169090.82631918817</v>
-      </c>
-      <c r="U2">
-        <v>297439.14075321943</v>
-      </c>
-      <c r="V2">
-        <v>369954.79224907467</v>
-      </c>
-      <c r="W2">
-        <v>607921.09426861384</v>
-      </c>
-      <c r="X2">
-        <v>664178.40122579352</v>
-      </c>
-      <c r="Y2">
-        <v>397977.04813985154</v>
-      </c>
-      <c r="Z2">
-        <v>665814.69627735054</v>
-      </c>
-      <c r="AA2">
-        <v>643076.70640116453</v>
-      </c>
-      <c r="AB2">
-        <v>668617.43841293245</v>
-      </c>
-      <c r="AC2">
-        <v>587450.91459142871</v>
-      </c>
-      <c r="AD2">
-        <v>722834.20321440266</v>
-      </c>
-      <c r="AE2">
-        <v>701352.84022401506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3">
-        <v>368246.75199999998</v>
-      </c>
-      <c r="D3">
-        <v>426682.2319999999</v>
-      </c>
-      <c r="E3">
-        <v>550824.74799999991</v>
-      </c>
-      <c r="F3">
-        <v>854144.74799999991</v>
-      </c>
-      <c r="G3">
-        <v>1190447.3640000001</v>
-      </c>
-      <c r="H3">
-        <v>1427170.6620000002</v>
-      </c>
-      <c r="I3">
-        <v>1428198.9680000008</v>
-      </c>
-      <c r="J3">
-        <v>1950448.4070000004</v>
-      </c>
-      <c r="K3">
-        <v>1681162.7689999992</v>
-      </c>
-      <c r="L3">
-        <v>1690169.9909999988</v>
-      </c>
-      <c r="M3">
-        <v>2087777.7757935026</v>
-      </c>
-      <c r="N3">
-        <v>1886882.6053647553</v>
-      </c>
-      <c r="O3">
-        <v>1863754.4690015228</v>
-      </c>
-      <c r="P3">
-        <v>2312347.4518104382</v>
-      </c>
-      <c r="Q3">
-        <v>2770768.0518439999</v>
-      </c>
-      <c r="R3">
-        <v>2971784.360728492</v>
-      </c>
-      <c r="S3">
-        <v>3295483.3752417075</v>
-      </c>
-      <c r="T3">
-        <v>3293140.4691367345</v>
-      </c>
-      <c r="U3">
-        <v>4440540.5782330586</v>
-      </c>
-      <c r="V3">
-        <v>3834290.2011882365</v>
-      </c>
-      <c r="W3">
-        <v>5962241.3943840908</v>
-      </c>
-      <c r="X3">
-        <v>7496842.7193038315</v>
-      </c>
-      <c r="Y3">
-        <v>7945871.5335587896</v>
-      </c>
-      <c r="Z3">
-        <v>9271966.2003003974</v>
-      </c>
-      <c r="AA3">
-        <v>9829170.1525827944</v>
-      </c>
-      <c r="AB3">
-        <v>10319109.678033626</v>
-      </c>
-      <c r="AC3">
-        <v>10519917.991777629</v>
-      </c>
-      <c r="AD3">
-        <v>11834335.598604666</v>
-      </c>
-      <c r="AE3">
-        <v>13881891.524164686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
-        <v>161.76300000000003</v>
-      </c>
-      <c r="D4">
-        <v>335.13200000000001</v>
-      </c>
-      <c r="E4">
-        <v>33.1</v>
-      </c>
-      <c r="F4">
-        <v>533.86200000000008</v>
-      </c>
-      <c r="G4">
-        <v>287.988</v>
-      </c>
-      <c r="H4">
-        <v>384.32699999999994</v>
-      </c>
-      <c r="I4">
-        <v>211.39900000000003</v>
-      </c>
-      <c r="J4">
-        <v>283.46500000000009</v>
-      </c>
-      <c r="K4">
-        <v>386.65400000000005</v>
-      </c>
-      <c r="L4">
-        <v>356.47500000000002</v>
-      </c>
-      <c r="M4">
-        <v>1067.1317814000004</v>
-      </c>
-      <c r="N4">
-        <v>745.13910330100009</v>
-      </c>
-      <c r="O4">
-        <v>903.44100000000014</v>
-      </c>
-      <c r="P4">
-        <v>2223.8416422800001</v>
-      </c>
-      <c r="Q4">
-        <v>1592.7509236080002</v>
-      </c>
-      <c r="R4">
-        <v>797.63300000000004</v>
-      </c>
-      <c r="S4">
-        <v>805.71399999999994</v>
-      </c>
-      <c r="T4">
-        <v>672.02913492000005</v>
-      </c>
-      <c r="U4">
-        <v>1253.9952952364001</v>
-      </c>
-      <c r="V4">
-        <v>985.22281852177014</v>
-      </c>
-      <c r="W4">
-        <v>2127.39077666196</v>
-      </c>
-      <c r="X4">
-        <v>6045.5407103401603</v>
-      </c>
-      <c r="Y4">
-        <v>8245.4956605481511</v>
-      </c>
-      <c r="Z4">
-        <v>27240.953242635092</v>
-      </c>
-      <c r="AA4">
-        <v>2958.0869012325998</v>
-      </c>
-      <c r="AB4">
-        <v>5381.1179906010957</v>
-      </c>
-      <c r="AC4">
-        <v>14447.465116818054</v>
-      </c>
-      <c r="AD4">
-        <v>33514.038324519541</v>
-      </c>
-      <c r="AE4">
-        <v>33048.428580687185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>1009.2030000000001</v>
-      </c>
-      <c r="D5">
-        <v>458.79100000000005</v>
-      </c>
-      <c r="E5">
-        <v>41284.987999999998</v>
-      </c>
-      <c r="F5">
-        <v>67730.182000000001</v>
-      </c>
-      <c r="G5">
-        <v>87430.546000000002</v>
-      </c>
-      <c r="H5">
-        <v>90703.762000000017</v>
-      </c>
-      <c r="I5">
-        <v>115808.43900000001</v>
-      </c>
-      <c r="J5">
-        <v>187226.41900000002</v>
-      </c>
-      <c r="K5">
-        <v>297743.14600000018</v>
-      </c>
-      <c r="L5">
-        <v>374119.68799999973</v>
-      </c>
-      <c r="M5">
-        <v>605892.44680645387</v>
-      </c>
-      <c r="N5">
-        <v>624958.00410006929</v>
-      </c>
-      <c r="O5">
-        <v>771805.81070242659</v>
-      </c>
-      <c r="P5">
-        <v>864224.30818862899</v>
-      </c>
-      <c r="Q5">
-        <v>1102921.7210274127</v>
-      </c>
-      <c r="R5">
-        <v>1292694.9278523561</v>
-      </c>
-      <c r="S5">
-        <v>1551769.9983570208</v>
-      </c>
-      <c r="T5">
-        <v>1719767.4065123925</v>
-      </c>
-      <c r="U5">
-        <v>1752467.4839763092</v>
-      </c>
-      <c r="V5">
-        <v>1491459.2886709156</v>
-      </c>
-      <c r="W5">
-        <v>2109605.5739922291</v>
-      </c>
-      <c r="X5">
-        <v>2845528.9305711677</v>
-      </c>
-      <c r="Y5">
-        <v>3131402.1550927437</v>
-      </c>
-      <c r="Z5">
-        <v>3677104.1010850924</v>
-      </c>
-      <c r="AA5">
-        <v>3826125.4519493384</v>
-      </c>
-      <c r="AB5">
-        <v>4067100.1757873632</v>
-      </c>
-      <c r="AC5">
-        <v>4092418.2035511131</v>
-      </c>
-      <c r="AD5">
-        <v>4721678.8248568065</v>
-      </c>
-      <c r="AE5">
-        <v>5487102.9803682165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>1176714.6370000008</v>
-      </c>
-      <c r="D6">
-        <v>2475968.1680000024</v>
-      </c>
-      <c r="E6">
-        <v>2892137.9589999989</v>
-      </c>
-      <c r="F6">
-        <v>10902963.074999992</v>
-      </c>
-      <c r="G6">
-        <v>14748315.050000001</v>
-      </c>
-      <c r="H6">
-        <v>18237491.198000006</v>
-      </c>
-      <c r="I6">
-        <v>19842979.574000016</v>
-      </c>
-      <c r="J6">
-        <v>21017076.953999992</v>
-      </c>
-      <c r="K6">
-        <v>17760571.682000004</v>
-      </c>
-      <c r="L6">
-        <v>17691821.273000009</v>
-      </c>
-      <c r="M6">
-        <v>20639747.502426099</v>
-      </c>
-      <c r="N6">
-        <v>19759964.581451256</v>
-      </c>
-      <c r="O6">
-        <v>20678644.036809281</v>
-      </c>
-      <c r="P6">
-        <v>23971582.43758022</v>
-      </c>
-      <c r="Q6">
-        <v>27627509.017145827</v>
-      </c>
-      <c r="R6">
-        <v>28412982.974791098</v>
-      </c>
-      <c r="S6">
-        <v>30834517.827378519</v>
-      </c>
-      <c r="T6">
-        <v>30016861.60570249</v>
-      </c>
-      <c r="U6">
-        <v>28318286.314973515</v>
-      </c>
-      <c r="V6">
-        <v>24809978.115794163</v>
-      </c>
-      <c r="W6">
-        <v>32958991.776091885</v>
-      </c>
-      <c r="X6">
-        <v>40448728.735950582</v>
-      </c>
-      <c r="Y6">
-        <v>42530128.231447652</v>
-      </c>
-      <c r="Z6">
-        <v>42961033.888508491</v>
-      </c>
-      <c r="AA6">
-        <v>37520484.699630544</v>
-      </c>
-      <c r="AB6">
-        <v>33530186.507858183</v>
-      </c>
-      <c r="AC6">
-        <v>30460997.271084998</v>
-      </c>
-      <c r="AD6">
-        <v>33145609.370739795</v>
-      </c>
-      <c r="AE6">
-        <v>36083395.074348092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>3283681.9509999994</v>
-      </c>
-      <c r="D7">
-        <v>4374957.9499999974</v>
-      </c>
-      <c r="E7">
-        <v>16921074.300000008</v>
-      </c>
-      <c r="F7">
-        <v>13651802.127</v>
-      </c>
-      <c r="G7">
-        <v>19709699.955999997</v>
-      </c>
-      <c r="H7">
-        <v>20112076.696999967</v>
-      </c>
-      <c r="I7">
-        <v>19570756.320999999</v>
-      </c>
-      <c r="J7">
-        <v>30595823.248999998</v>
-      </c>
-      <c r="K7">
-        <v>24626223.399000019</v>
-      </c>
-      <c r="L7">
-        <v>21134349.264999989</v>
-      </c>
-      <c r="M7">
-        <v>23033387.405669149</v>
-      </c>
-      <c r="N7">
-        <v>20847074.192282878</v>
-      </c>
-      <c r="O7">
-        <v>22567649.577425748</v>
-      </c>
-      <c r="P7">
-        <v>25121391.567776822</v>
-      </c>
-      <c r="Q7">
-        <v>27688698.296524025</v>
-      </c>
-      <c r="R7">
-        <v>24589646.821023334</v>
-      </c>
-      <c r="S7">
-        <v>27512866.743792254</v>
-      </c>
-      <c r="T7">
-        <v>27896207.24274287</v>
-      </c>
-      <c r="U7">
-        <v>25219769.179228693</v>
-      </c>
-      <c r="V7">
-        <v>20940662.5506698</v>
-      </c>
-      <c r="W7">
-        <v>23374760.639730114</v>
-      </c>
-      <c r="X7">
-        <v>24929492.793217693</v>
-      </c>
-      <c r="Y7">
-        <v>25169122.339333758</v>
-      </c>
-      <c r="Z7">
-        <v>28596582.85462435</v>
-      </c>
-      <c r="AA7">
-        <v>25728981.826138586</v>
-      </c>
-      <c r="AB7">
-        <v>22825295.71040263</v>
-      </c>
-      <c r="AC7">
-        <v>22982614.077844091</v>
-      </c>
-      <c r="AD7">
-        <v>21488194.814162116</v>
-      </c>
-      <c r="AE7">
-        <v>20988281.350581869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>269651.66099999991</v>
-      </c>
-      <c r="D8">
-        <v>216996.46000000005</v>
-      </c>
-      <c r="E8">
-        <v>333520.15699999983</v>
-      </c>
-      <c r="F8">
-        <v>508557.53999999986</v>
-      </c>
-      <c r="G8">
-        <v>782874.67999999912</v>
-      </c>
-      <c r="H8">
-        <v>973464.25400000031</v>
-      </c>
-      <c r="I8">
-        <v>803485.75100000016</v>
-      </c>
-      <c r="J8">
-        <v>1030765.3920000008</v>
-      </c>
-      <c r="K8">
-        <v>1082141.0420000013</v>
-      </c>
-      <c r="L8">
-        <v>1260449.5850000002</v>
-      </c>
-      <c r="M8">
-        <v>1817806.8475124403</v>
-      </c>
-      <c r="N8">
-        <v>2118144.6186529645</v>
-      </c>
-      <c r="O8">
-        <v>2066618.9235667938</v>
-      </c>
-      <c r="P8">
-        <v>2560335.4793017725</v>
-      </c>
-      <c r="Q8">
-        <v>2966833.7728351592</v>
-      </c>
-      <c r="R8">
-        <v>3519938.5945706586</v>
-      </c>
-      <c r="S8">
-        <v>3563047.0116331019</v>
-      </c>
-      <c r="T8">
-        <v>4428746.6857976848</v>
-      </c>
-      <c r="U8">
-        <v>4545761.065189179</v>
-      </c>
-      <c r="V8">
-        <v>4506531.2522176802</v>
-      </c>
-      <c r="W8">
-        <v>6109482.6064051678</v>
-      </c>
-      <c r="X8">
-        <v>7157669.091828757</v>
-      </c>
-      <c r="Y8">
-        <v>6904738.5080300914</v>
-      </c>
-      <c r="Z8">
-        <v>7304199.6400981108</v>
-      </c>
-      <c r="AA8">
-        <v>7703786.7124627326</v>
-      </c>
-      <c r="AB8">
-        <v>7738067.2088673478</v>
-      </c>
-      <c r="AC8">
-        <v>7794783.1539076585</v>
-      </c>
-      <c r="AD8">
-        <v>8360854.6797610922</v>
-      </c>
-      <c r="AE8">
-        <v>8454963.7161329761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>569714.90299999982</v>
-      </c>
-      <c r="D9">
-        <v>1101927.3359999997</v>
-      </c>
-      <c r="E9">
-        <v>1392048.0200000007</v>
-      </c>
-      <c r="F9">
-        <v>1544564.2380000008</v>
-      </c>
-      <c r="G9">
-        <v>1809815.5819999981</v>
-      </c>
-      <c r="H9">
-        <v>2268070.8949999996</v>
-      </c>
-      <c r="I9">
-        <v>2373934.2440000004</v>
-      </c>
-      <c r="J9">
-        <v>2935899.0680000018</v>
-      </c>
-      <c r="K9">
-        <v>2236420.1570000011</v>
-      </c>
-      <c r="L9">
-        <v>2574542.4250000026</v>
-      </c>
-      <c r="M9">
-        <v>3293494.7896634704</v>
-      </c>
-      <c r="N9">
-        <v>3177120.2169815684</v>
-      </c>
-      <c r="O9">
-        <v>3001091.821826546</v>
-      </c>
-      <c r="P9">
-        <v>3642918.651562924</v>
-      </c>
-      <c r="Q9">
-        <v>4137693.0633047717</v>
-      </c>
-      <c r="R9">
-        <v>4242160.9405868202</v>
-      </c>
-      <c r="S9">
-        <v>4820240.9181132158</v>
-      </c>
-      <c r="T9">
-        <v>5510940.0445500435</v>
-      </c>
-      <c r="U9">
-        <v>6339814.3475524941</v>
-      </c>
-      <c r="V9">
-        <v>5444827.4067955632</v>
-      </c>
-      <c r="W9">
-        <v>7324400.5328801665</v>
-      </c>
-      <c r="X9">
-        <v>9577986.6371824089</v>
-      </c>
-      <c r="Y9">
-        <v>10668882.943481231</v>
-      </c>
-      <c r="Z9">
-        <v>10542542.467963347</v>
-      </c>
-      <c r="AA9">
-        <v>10854721.723792553</v>
-      </c>
-      <c r="AB9">
-        <v>9353223.5072922576</v>
-      </c>
-      <c r="AC9">
-        <v>9330032.7896331288</v>
-      </c>
-      <c r="AD9">
-        <v>9797062.7831626516</v>
-      </c>
-      <c r="AE9">
-        <v>10668538.806955237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>1181723.8870000008</v>
-      </c>
-      <c r="D10">
-        <v>1847462.2469999993</v>
-      </c>
-      <c r="E10">
-        <v>2240138.9469999992</v>
-      </c>
-      <c r="F10">
-        <v>2885546.1030000011</v>
-      </c>
-      <c r="G10">
-        <v>4142364.8120000018</v>
-      </c>
-      <c r="H10">
-        <v>5024421.7429999989</v>
-      </c>
-      <c r="I10">
-        <v>5053897.4900000049</v>
-      </c>
-      <c r="J10">
-        <v>5220580.5410000011</v>
-      </c>
-      <c r="K10">
-        <v>3311842.437000006</v>
-      </c>
-      <c r="L10">
-        <v>4485172.8280000035</v>
-      </c>
-      <c r="M10">
-        <v>5885576.9857637268</v>
-      </c>
-      <c r="N10">
-        <v>6299035.2757442277</v>
-      </c>
-      <c r="O10">
-        <v>7046476.793792638</v>
-      </c>
-      <c r="P10">
-        <v>7713633.5629295977</v>
-      </c>
-      <c r="Q10">
-        <v>8025786.0017208047</v>
-      </c>
-      <c r="R10">
-        <v>7914538.8314608568</v>
-      </c>
-      <c r="S10">
-        <v>9178696.2340247836</v>
-      </c>
-      <c r="T10">
-        <v>9826774.7372425646</v>
-      </c>
-      <c r="U10">
-        <v>9663032.1224386692</v>
-      </c>
-      <c r="V10">
-        <v>7901356.612090162</v>
-      </c>
-      <c r="W10">
-        <v>10490423.111950831</v>
-      </c>
-      <c r="X10">
-        <v>13467566.73336071</v>
-      </c>
-      <c r="Y10">
-        <v>12734853.103843644</v>
-      </c>
-      <c r="Z10">
-        <v>14647228.212538302</v>
-      </c>
-      <c r="AA10">
-        <v>16479430.327961607</v>
-      </c>
-      <c r="AB10">
-        <v>17289705.093062282</v>
-      </c>
-      <c r="AC10">
-        <v>15960690.072595021</v>
-      </c>
-      <c r="AD10">
-        <v>16873105.469029315</v>
-      </c>
-      <c r="AE10">
-        <v>18155241.773964331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>729538.14100000006</v>
-      </c>
-      <c r="D11">
-        <v>930894.51999999979</v>
-      </c>
-      <c r="E11">
-        <v>1009621.6140000002</v>
-      </c>
-      <c r="F11">
-        <v>1311062.1460000004</v>
-      </c>
-      <c r="G11">
-        <v>1802502.9839999995</v>
-      </c>
-      <c r="H11">
-        <v>1906654.9330000002</v>
-      </c>
-      <c r="I11">
-        <v>1875508.5059999996</v>
-      </c>
-      <c r="J11">
-        <v>2042035.6470000006</v>
-      </c>
-      <c r="K11">
-        <v>1377856.0279999995</v>
-      </c>
-      <c r="L11">
-        <v>1619949.2749999999</v>
-      </c>
-      <c r="M11">
-        <v>1929718.9375238284</v>
-      </c>
-      <c r="N11">
-        <v>1664653.7970516004</v>
-      </c>
-      <c r="O11">
-        <v>1756237.3669688676</v>
-      </c>
-      <c r="P11">
-        <v>1960087.7757007214</v>
-      </c>
-      <c r="Q11">
-        <v>2219728.6103728148</v>
-      </c>
-      <c r="R11">
-        <v>2412032.6505658799</v>
-      </c>
-      <c r="S11">
-        <v>2572227.4477171693</v>
-      </c>
-      <c r="T11">
-        <v>3318588.8837021235</v>
-      </c>
-      <c r="U11">
-        <v>3791372.9810374174</v>
-      </c>
-      <c r="V11">
-        <v>3476648.6521569057</v>
-      </c>
-      <c r="W11">
-        <v>3943185.3691054424</v>
-      </c>
-      <c r="X11">
-        <v>5021222.351927381</v>
-      </c>
-      <c r="Y11">
-        <v>6912849.0995089281</v>
-      </c>
-      <c r="Z11">
-        <v>7962562.4231773298</v>
-      </c>
-      <c r="AA11">
-        <v>7306272.5902151205</v>
-      </c>
-      <c r="AB11">
-        <v>7249367.9777648812</v>
-      </c>
-      <c r="AC11">
-        <v>5726179.8332094429</v>
-      </c>
-      <c r="AD11">
-        <v>5091216.5954568516</v>
-      </c>
-      <c r="AE11">
-        <v>5017656.1008531321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>7917.7450000000008</v>
-      </c>
-      <c r="D12">
-        <v>8446.8460000000014</v>
-      </c>
-      <c r="E12">
-        <v>8469.2240000000002</v>
-      </c>
-      <c r="F12">
-        <v>11143.424999999999</v>
-      </c>
-      <c r="G12">
-        <v>12421.018000000004</v>
-      </c>
-      <c r="H12">
-        <v>11381.727999999999</v>
-      </c>
-      <c r="I12">
-        <v>10059.960000000001</v>
-      </c>
-      <c r="J12">
-        <v>9725.8399999999965</v>
-      </c>
-      <c r="K12">
-        <v>9864.5459999999985</v>
-      </c>
-      <c r="L12">
-        <v>29399.86199999999</v>
-      </c>
-      <c r="M12">
-        <v>84495.306072764288</v>
-      </c>
-      <c r="N12">
-        <v>47911.974514999718</v>
-      </c>
-      <c r="O12">
-        <v>37693.257512887096</v>
-      </c>
-      <c r="P12">
-        <v>51010.507257063909</v>
-      </c>
-      <c r="Q12">
-        <v>52888.270918813017</v>
-      </c>
-      <c r="R12">
-        <v>22266.346599918546</v>
-      </c>
-      <c r="S12">
-        <v>27357.798962143657</v>
-      </c>
-      <c r="T12">
-        <v>27419.503527025779</v>
-      </c>
-      <c r="U12">
-        <v>31773.026900047305</v>
-      </c>
-      <c r="V12">
-        <v>31586.288466539998</v>
-      </c>
-      <c r="W12">
-        <v>32580.682184959045</v>
-      </c>
-      <c r="X12">
-        <v>36891.296128905793</v>
-      </c>
-      <c r="Y12">
-        <v>35085.847438255594</v>
-      </c>
-      <c r="Z12">
-        <v>51208.763918705161</v>
-      </c>
-      <c r="AA12">
-        <v>40836.697505858276</v>
-      </c>
-      <c r="AB12">
-        <v>43605.798083957699</v>
-      </c>
-      <c r="AC12">
-        <v>46742.224714063384</v>
-      </c>
-      <c r="AD12">
-        <v>52364.406501731275</v>
-      </c>
-      <c r="AE12">
-        <v>58556.891723829198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>2677.1840000000002</v>
-      </c>
-      <c r="D13">
-        <v>2583.2239999999997</v>
-      </c>
-      <c r="E13">
-        <v>20846.353999999999</v>
-      </c>
-      <c r="F13">
-        <v>22084.268000000004</v>
-      </c>
-      <c r="G13">
-        <v>15932.572999999999</v>
-      </c>
-      <c r="H13">
-        <v>23222.230000000003</v>
-      </c>
-      <c r="I13">
-        <v>25581.601999999999</v>
-      </c>
-      <c r="J13">
-        <v>30363.855999999996</v>
-      </c>
-      <c r="K13">
-        <v>30712.405000000006</v>
-      </c>
-      <c r="L13">
-        <v>50644.28899999999</v>
-      </c>
-      <c r="M13">
-        <v>81533.340654532265</v>
-      </c>
-      <c r="N13">
-        <v>70776.655441673982</v>
-      </c>
-      <c r="O13">
-        <v>81582.060368984516</v>
-      </c>
-      <c r="P13">
-        <v>91338.778118300004</v>
-      </c>
-      <c r="Q13">
-        <v>124548.21699292</v>
-      </c>
-      <c r="R13">
-        <v>105706.37627760836</v>
-      </c>
-      <c r="S13">
-        <v>107162.39730126222</v>
-      </c>
-      <c r="T13">
-        <v>65356.877783270611</v>
-      </c>
-      <c r="U13">
-        <v>120224.51526026745</v>
-      </c>
-      <c r="V13">
-        <v>350254.40404025716</v>
-      </c>
-      <c r="W13">
-        <v>345915.79476740101</v>
-      </c>
-      <c r="X13">
-        <v>702621.42023111403</v>
-      </c>
-      <c r="Y13">
-        <v>765550.62143266655</v>
-      </c>
-      <c r="Z13">
-        <v>721164.59237267135</v>
-      </c>
-      <c r="AA13">
-        <v>602608.77962533373</v>
-      </c>
-      <c r="AB13">
-        <v>371224.94508236891</v>
-      </c>
-      <c r="AC13">
-        <v>168402.41085343427</v>
-      </c>
-      <c r="AD13">
-        <v>101360.30874420675</v>
-      </c>
-      <c r="AE13">
-        <v>107761.44756652541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14">
-        <v>26794.498000000003</v>
-      </c>
-      <c r="D14">
-        <v>39440.898999999998</v>
-      </c>
-      <c r="E14">
-        <v>136527.16399999999</v>
-      </c>
-      <c r="F14">
-        <v>150375.14300000001</v>
-      </c>
-      <c r="G14">
-        <v>174805.73000000004</v>
-      </c>
-      <c r="H14">
-        <v>254909.93800000008</v>
-      </c>
-      <c r="I14">
-        <v>230506.50600000008</v>
-      </c>
-      <c r="J14">
-        <v>249952.09999999986</v>
-      </c>
-      <c r="K14">
-        <v>257073.79399999994</v>
-      </c>
-      <c r="L14">
-        <v>333667.29399999976</v>
-      </c>
-      <c r="M14">
-        <v>504888.31584334362</v>
-      </c>
-      <c r="N14">
-        <v>433829.32767578756</v>
-      </c>
-      <c r="O14">
-        <v>433904.10840115044</v>
-      </c>
-      <c r="P14">
-        <v>409281.92788365361</v>
-      </c>
-      <c r="Q14">
-        <v>345238.38668256166</v>
-      </c>
-      <c r="R14">
-        <v>371871.07109720819</v>
-      </c>
-      <c r="S14">
-        <v>411066.02943664818</v>
-      </c>
-      <c r="T14">
-        <v>459265.40263855836</v>
-      </c>
-      <c r="U14">
-        <v>525368.91812063439</v>
-      </c>
-      <c r="V14">
-        <v>532961.53029889741</v>
-      </c>
-      <c r="W14">
-        <v>768936.41274391185</v>
-      </c>
-      <c r="X14">
-        <v>1075952.7199194164</v>
-      </c>
-      <c r="Y14">
-        <v>1188647.3351091091</v>
-      </c>
-      <c r="Z14">
-        <v>1712590.0506983623</v>
-      </c>
-      <c r="AA14">
-        <v>1739831.5974692458</v>
-      </c>
-      <c r="AB14">
-        <v>1765644.9328266773</v>
-      </c>
-      <c r="AC14">
-        <v>1957930.9637269215</v>
-      </c>
-      <c r="AD14">
-        <v>2354924.4031499652</v>
-      </c>
-      <c r="AE14">
-        <v>3022296.3793517817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>41875.578999999998</v>
-      </c>
-      <c r="D15">
-        <v>55597.667999999998</v>
-      </c>
-      <c r="E15">
-        <v>73908.491999999998</v>
-      </c>
-      <c r="F15">
-        <v>91392.259000000049</v>
-      </c>
-      <c r="G15">
-        <v>83613.908000000025</v>
-      </c>
-      <c r="H15">
-        <v>107323.76600000003</v>
-      </c>
-      <c r="I15">
-        <v>96555.022999999972</v>
-      </c>
-      <c r="J15">
-        <v>107084.512</v>
-      </c>
-      <c r="K15">
-        <v>88686.068000000043</v>
-      </c>
-      <c r="L15">
-        <v>144728.41600000011</v>
-      </c>
-      <c r="M15">
-        <v>214423.49518105455</v>
-      </c>
-      <c r="N15">
-        <v>131698.64203121388</v>
-      </c>
-      <c r="O15">
-        <v>90171.789151945559</v>
-      </c>
-      <c r="P15">
-        <v>147007.51621818604</v>
-      </c>
-      <c r="Q15">
-        <v>139900.92617566523</v>
-      </c>
-      <c r="R15">
-        <v>141330.51092087582</v>
-      </c>
-      <c r="S15">
-        <v>177593.43116205218</v>
-      </c>
-      <c r="T15">
-        <v>264701.18619204115</v>
-      </c>
-      <c r="U15">
-        <v>292579.57771374431</v>
-      </c>
-      <c r="V15">
-        <v>269175.03040896141</v>
-      </c>
-      <c r="W15">
-        <v>466691.77624695492</v>
-      </c>
-      <c r="X15">
-        <v>807785.57226884225</v>
-      </c>
-      <c r="Y15">
-        <v>1419880.3168595033</v>
-      </c>
-      <c r="Z15">
-        <v>1668099.0313724629</v>
-      </c>
-      <c r="AA15">
-        <v>1776345.2221132442</v>
-      </c>
-      <c r="AB15">
-        <v>585754.25455905357</v>
-      </c>
-      <c r="AC15">
-        <v>532042.79611211922</v>
-      </c>
-      <c r="AD15">
-        <v>514870.86641169578</v>
-      </c>
-      <c r="AE15">
-        <v>607128.92140021373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16">
-        <v>222624.95699999999</v>
-      </c>
-      <c r="D16">
-        <v>309108.32700000022</v>
-      </c>
-      <c r="E16">
-        <v>320792.65400000021</v>
-      </c>
-      <c r="F16">
-        <v>330905.53600000002</v>
-      </c>
-      <c r="G16">
-        <v>411607.57000000007</v>
-      </c>
-      <c r="H16">
-        <v>527074.21700000006</v>
-      </c>
-      <c r="I16">
-        <v>353661.13499999989</v>
-      </c>
-      <c r="J16">
-        <v>354210.03200000012</v>
-      </c>
-      <c r="K16">
-        <v>350181.44699999987</v>
-      </c>
-      <c r="L16">
-        <v>470064.17800000013</v>
-      </c>
-      <c r="M16">
-        <v>453468.97944793513</v>
-      </c>
-      <c r="N16">
-        <v>554415.20420839055</v>
-      </c>
-      <c r="O16">
-        <v>838468.02147049422</v>
-      </c>
-      <c r="P16">
-        <v>1071296.4649473336</v>
-      </c>
-      <c r="Q16">
-        <v>1486200.6444201225</v>
-      </c>
-      <c r="R16">
-        <v>1698195.9200204373</v>
-      </c>
-      <c r="S16">
-        <v>2018437.6277246345</v>
-      </c>
-      <c r="T16">
-        <v>2744704.2822899497</v>
-      </c>
-      <c r="U16">
-        <v>3064156.3450920908</v>
-      </c>
-      <c r="V16">
-        <v>3097097.8551098779</v>
-      </c>
-      <c r="W16">
-        <v>3642789.0045225774</v>
-      </c>
-      <c r="X16">
-        <v>3969442.5731870211</v>
-      </c>
-      <c r="Y16">
-        <v>4062747.2148252237</v>
-      </c>
-      <c r="Z16">
-        <v>4957972.1285972595</v>
-      </c>
-      <c r="AA16">
-        <v>5121741.8201762708</v>
-      </c>
-      <c r="AB16">
-        <v>5755783.5762990564</v>
-      </c>
-      <c r="AC16">
-        <v>4999293.6003778726</v>
-      </c>
-      <c r="AD16">
-        <v>5312127.4284366956</v>
-      </c>
-      <c r="AE16">
-        <v>6040819.886067017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17">
-        <v>306793.88300000009</v>
-      </c>
-      <c r="D17">
-        <v>505987.87900000019</v>
-      </c>
-      <c r="E17">
-        <v>606397.76100000006</v>
-      </c>
-      <c r="F17">
-        <v>945631.91200000001</v>
-      </c>
-      <c r="G17">
-        <v>1115877.5639999995</v>
-      </c>
-      <c r="H17">
-        <v>1295079.5619999995</v>
-      </c>
-      <c r="I17">
-        <v>1282016.8829999999</v>
-      </c>
-      <c r="J17">
-        <v>1870526.8980000005</v>
-      </c>
-      <c r="K17">
-        <v>1601728.037999999</v>
-      </c>
-      <c r="L17">
-        <v>1763709.4489999998</v>
-      </c>
-      <c r="M17">
-        <v>1958602.3641289328</v>
-      </c>
-      <c r="N17">
-        <v>1792115.1933389353</v>
-      </c>
-      <c r="O17">
-        <v>1849272.8850648403</v>
-      </c>
-      <c r="P17">
-        <v>1878861.9586789303</v>
-      </c>
-      <c r="Q17">
-        <v>2090872.8668204297</v>
-      </c>
-      <c r="R17">
-        <v>2111119.1493412722</v>
-      </c>
-      <c r="S17">
-        <v>2238223.3142830501</v>
-      </c>
-      <c r="T17">
-        <v>2324731.4337383509</v>
-      </c>
-      <c r="U17">
-        <v>2235850.8639402557</v>
-      </c>
-      <c r="V17">
-        <v>2232356.0200411016</v>
-      </c>
-      <c r="W17">
-        <v>2867422.4129362977</v>
-      </c>
-      <c r="X17">
-        <v>3651780.1623762334</v>
-      </c>
-      <c r="Y17">
-        <v>4244941.073064792</v>
-      </c>
-      <c r="Z17">
-        <v>5039219.2889171485</v>
-      </c>
-      <c r="AA17">
-        <v>4563800.1379663497</v>
-      </c>
-      <c r="AB17">
-        <v>5646116.3840703368</v>
-      </c>
-      <c r="AC17">
-        <v>7010598.5598548539</v>
-      </c>
-      <c r="AD17">
-        <v>7614622.8857892128</v>
-      </c>
-      <c r="AE17">
-        <v>7223870.5912251314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18">
-        <v>1292437.1509999991</v>
-      </c>
-      <c r="D18">
-        <v>1829135.8960000002</v>
-      </c>
-      <c r="E18">
-        <v>2808175.6919999956</v>
-      </c>
-      <c r="F18">
-        <v>2987391.7829999989</v>
-      </c>
-      <c r="G18">
-        <v>2923531.5140000028</v>
-      </c>
-      <c r="H18">
-        <v>2789833.168000001</v>
-      </c>
-      <c r="I18">
-        <v>2642712.7800000012</v>
-      </c>
-      <c r="J18">
-        <v>2811567.4999999949</v>
-      </c>
-      <c r="K18">
-        <v>1853005.9480000003</v>
-      </c>
-      <c r="L18">
-        <v>2169770.2020000005</v>
-      </c>
-      <c r="M18">
-        <v>2694097.8509537545</v>
-      </c>
-      <c r="N18">
-        <v>2430239.9996631057</v>
-      </c>
-      <c r="O18">
-        <v>2512596.9721257235</v>
-      </c>
-      <c r="P18">
-        <v>3062094.8455079324</v>
-      </c>
-      <c r="Q18">
-        <v>3282238.1565417256</v>
-      </c>
-      <c r="R18">
-        <v>3281999.3185650837</v>
-      </c>
-      <c r="S18">
-        <v>3691103.7235999694</v>
-      </c>
-      <c r="T18">
-        <v>5597636.9151063273</v>
-      </c>
-      <c r="U18">
-        <v>4037873.1894591548</v>
-      </c>
-      <c r="V18">
-        <v>3010265.4537949949</v>
-      </c>
-      <c r="W18">
-        <v>3017937.812796399</v>
-      </c>
-      <c r="X18">
-        <v>3806473.2822360252</v>
-      </c>
-      <c r="Y18">
-        <v>4133577.3741672519</v>
-      </c>
-      <c r="Z18">
-        <v>4720380.0772800986</v>
-      </c>
-      <c r="AA18">
-        <v>4565381.5153300576</v>
-      </c>
-      <c r="AB18">
-        <v>4271405.0111188469</v>
-      </c>
-      <c r="AC18">
-        <v>3772163.1250592954</v>
-      </c>
-      <c r="AD18">
-        <v>3567201.0410097823</v>
-      </c>
-      <c r="AE18">
-        <v>3376391.1017043963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19">
-        <v>214842.85499999992</v>
-      </c>
-      <c r="D19">
-        <v>300155.75999999989</v>
-      </c>
-      <c r="E19">
-        <v>405295.75900000014</v>
-      </c>
-      <c r="F19">
-        <v>702889.52200000046</v>
-      </c>
-      <c r="G19">
-        <v>838353.45699999959</v>
-      </c>
-      <c r="H19">
-        <v>972531.11799999978</v>
-      </c>
-      <c r="I19">
-        <v>947193.51699999999</v>
-      </c>
-      <c r="J19">
-        <v>1279595.0269999993</v>
-      </c>
-      <c r="K19">
-        <v>1261975.1490000016</v>
-      </c>
-      <c r="L19">
-        <v>1317453.5469999986</v>
-      </c>
-      <c r="M19">
-        <v>1550590.1152126994</v>
-      </c>
-      <c r="N19">
-        <v>1365906.891124652</v>
-      </c>
-      <c r="O19">
-        <v>1408204.6149025031</v>
-      </c>
-      <c r="P19">
-        <v>1641444.3860596034</v>
-      </c>
-      <c r="Q19">
-        <v>1786463.9684543959</v>
-      </c>
-      <c r="R19">
-        <v>1848274.1412928577</v>
-      </c>
-      <c r="S19">
-        <v>1835304.627520038</v>
-      </c>
-      <c r="T19">
-        <v>1934594.7907709945</v>
-      </c>
-      <c r="U19">
-        <v>2070122.4389657176</v>
-      </c>
-      <c r="V19">
-        <v>1791215.9483576107</v>
-      </c>
-      <c r="W19">
-        <v>2211654.9150394942</v>
-      </c>
-      <c r="X19">
-        <v>2838449.5651682229</v>
-      </c>
-      <c r="Y19">
-        <v>2580870.6169725382</v>
-      </c>
-      <c r="Z19">
-        <v>2851451.6749736471</v>
-      </c>
-      <c r="AA19">
-        <v>2990887.9786983291</v>
-      </c>
-      <c r="AB19">
-        <v>2971906.2919667484</v>
-      </c>
-      <c r="AC19">
-        <v>2885706.18162863</v>
-      </c>
-      <c r="AD19">
-        <v>2896935.2518187184</v>
-      </c>
-      <c r="AE19">
-        <v>3012669.3420892032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20">
-        <v>529542.20300000021</v>
-      </c>
-      <c r="D20">
-        <v>725520.61899999995</v>
-      </c>
-      <c r="E20">
-        <v>900410.78600000008</v>
-      </c>
-      <c r="F20">
-        <v>1095666.666</v>
-      </c>
-      <c r="G20">
-        <v>1373631.2269999995</v>
-      </c>
-      <c r="H20">
-        <v>1723449.0510000011</v>
-      </c>
-      <c r="I20">
-        <v>1606336.0200000007</v>
-      </c>
-      <c r="J20">
-        <v>1856441.7560000008</v>
-      </c>
-      <c r="K20">
-        <v>1612285.3110000005</v>
-      </c>
-      <c r="L20">
-        <v>1802583.216999999</v>
-      </c>
-      <c r="M20">
-        <v>2311262.9071906186</v>
-      </c>
-      <c r="N20">
-        <v>2170598.9099365114</v>
-      </c>
-      <c r="O20">
-        <v>2276801.4417047733</v>
-      </c>
-      <c r="P20">
-        <v>2467126.7413712433</v>
-      </c>
-      <c r="Q20">
-        <v>2802690.7734020413</v>
-      </c>
-      <c r="R20">
-        <v>2907691.1392130516</v>
-      </c>
-      <c r="S20">
-        <v>3068999.753361973</v>
-      </c>
-      <c r="T20">
-        <v>3358288.4117001714</v>
-      </c>
-      <c r="U20">
-        <v>3910252.6211514468</v>
-      </c>
-      <c r="V20">
-        <v>3232518.7646664884</v>
-      </c>
-      <c r="W20">
-        <v>4415859.459381056</v>
-      </c>
-      <c r="X20">
-        <v>5283672.0384161584</v>
-      </c>
-      <c r="Y20">
-        <v>5554085.3881786242</v>
-      </c>
-      <c r="Z20">
-        <v>5656341.9250728935</v>
-      </c>
-      <c r="AA20">
-        <v>5688524.1025603395</v>
-      </c>
-      <c r="AB20">
-        <v>5586955.7117901277</v>
-      </c>
-      <c r="AC20">
-        <v>5484053.7688024109</v>
-      </c>
-      <c r="AD20">
-        <v>5611388.3510080632</v>
-      </c>
-      <c r="AE20">
-        <v>6135694.7919302443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
-        <v>31446.293999999998</v>
-      </c>
-      <c r="D21">
-        <v>104820.912</v>
-      </c>
-      <c r="E21">
-        <v>225206.40500000003</v>
-      </c>
-      <c r="F21">
-        <v>462319.68599999981</v>
-      </c>
-      <c r="G21">
-        <v>588996.12100000016</v>
-      </c>
-      <c r="H21">
-        <v>844243.01600000018</v>
-      </c>
-      <c r="I21">
-        <v>1018671.8679999999</v>
-      </c>
-      <c r="J21">
-        <v>1635330.5870000001</v>
-      </c>
-      <c r="K21">
-        <v>1510813.1500000008</v>
-      </c>
-      <c r="L21">
-        <v>1537517.9629999998</v>
-      </c>
-      <c r="M21">
-        <v>1717556.8867613291</v>
-      </c>
-      <c r="N21">
-        <v>1651541.3377600741</v>
-      </c>
-      <c r="O21">
-        <v>2320222.5357235963</v>
-      </c>
-      <c r="P21">
-        <v>2951156.6587105007</v>
-      </c>
-      <c r="Q21">
-        <v>3565757.0598527999</v>
-      </c>
-      <c r="R21">
-        <v>3971702.5093329647</v>
-      </c>
-      <c r="S21">
-        <v>4637771.2166864146</v>
-      </c>
-      <c r="T21">
-        <v>6063448.9663139237</v>
-      </c>
-      <c r="U21">
-        <v>7368133.1669054925</v>
-      </c>
-      <c r="V21">
-        <v>7901389.7791971322</v>
-      </c>
-      <c r="W21">
-        <v>10988352.469362056</v>
-      </c>
-      <c r="X21">
-        <v>14439148.825859401</v>
-      </c>
-      <c r="Y21">
-        <v>16831961.619354226</v>
-      </c>
-      <c r="Z21">
-        <v>21980093.383804783</v>
-      </c>
-      <c r="AA21">
-        <v>25377868.522089954</v>
-      </c>
-      <c r="AB21">
-        <v>24591403.629145619</v>
-      </c>
-      <c r="AC21">
-        <v>22234050.554701339</v>
-      </c>
-      <c r="AD21">
-        <v>24752294.257542163</v>
-      </c>
-      <c r="AE21">
-        <v>28575393.74017683</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
